--- a/capiq_data/in_process_ids/ids 3.xlsx
+++ b/capiq_data/in_process_ids/ids 3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_ids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_ids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592C3D5D-1060-4B0B-BC6E-43F113FA96FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D036243A-D84F-4B18-B7FE-59B2C70EA43A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="14401" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"709193e7-bd8c-4085-84d7-87340afa531a"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"4a8849cc-deb3-4c13-8dbc-98847f20af9e"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,7 +41,7 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
@@ -254,6 +254,9 @@
     <t>IQ Name</t>
   </si>
   <si>
+    <t>EQIX</t>
+  </si>
+  <si>
     <t>EQR</t>
   </si>
   <si>
@@ -326,9 +329,6 @@
     <t>FLIR</t>
   </si>
   <si>
-    <t>FLS</t>
-  </si>
-  <si>
     <t>FMC</t>
   </si>
   <si>
@@ -365,6 +365,9 @@
     <t>IT</t>
   </si>
   <si>
+    <t>GNRC</t>
+  </si>
+  <si>
     <t>GD</t>
   </si>
   <si>
@@ -509,15 +512,6 @@
     <t>IVZ</t>
   </si>
   <si>
-    <t>IPGP</t>
-  </si>
-  <si>
-    <t>IPG Photonics Corporation</t>
-  </si>
-  <si>
-    <t>IQ427949</t>
-  </si>
-  <si>
     <t>Invesco Ltd.</t>
   </si>
   <si>
@@ -806,6 +800,12 @@
     <t>IQ274561</t>
   </si>
   <si>
+    <t>Generac Holdings Inc.</t>
+  </si>
+  <si>
+    <t>IQ78749412</t>
+  </si>
+  <si>
     <t>Gartner, Inc.</t>
   </si>
   <si>
@@ -872,12 +872,6 @@
     <t>IQ28606</t>
   </si>
   <si>
-    <t>Flowserve Corporation</t>
-  </si>
-  <si>
-    <t>IQ267555</t>
-  </si>
-  <si>
     <t>FLIR Systems, Inc.</t>
   </si>
   <si>
@@ -1008,6 +1002,12 @@
   </si>
   <si>
     <t>IQ28209</t>
+  </si>
+  <si>
+    <t>Equinix, Inc. (REIT)</t>
+  </si>
+  <si>
+    <t>IQ28202</t>
   </si>
   <si>
     <t/>
@@ -1417,13 +1417,13 @@
         <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
         <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1434,13 +1434,13 @@
         <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
         <v>257</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1655,13 +1655,13 @@
         <v>257</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D18" t="s">
         <v>257</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -1672,13 +1672,13 @@
         <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D19" t="s">
         <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
